--- a/9 класс/вычисления.xlsx
+++ b/9 класс/вычисления.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="6792"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1785,31 +1785,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2095,43 +2095,43 @@
   <dimension ref="B2:T503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.21875" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1"/>
-    <col min="8" max="14" width="4.88671875" customWidth="1"/>
-    <col min="15" max="15" width="2.5546875" customWidth="1"/>
-    <col min="16" max="16" width="2.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="8" max="14" width="4.85546875" customWidth="1"/>
+    <col min="15" max="15" width="2.5703125" customWidth="1"/>
+    <col min="16" max="16" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
         <v>531</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="17"/>
+      <c r="E2" s="13"/>
       <c r="G2" s="4" t="s">
         <v>530</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-    </row>
-    <row r="3" spans="2:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -2166,13 +2166,13 @@
       <c r="N3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2185,7 +2185,7 @@
       <c r="E4" s="2">
         <v>457</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -2198,15 +2198,15 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="12" t="s">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2219,21 +2219,21 @@
       <c r="E5" s="2">
         <v>673</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="12" t="s">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2246,7 +2246,7 @@
       <c r="E6" s="2">
         <v>736</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -2259,15 +2259,15 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="12" t="s">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -2280,21 +2280,21 @@
       <c r="E7" s="2">
         <v>521</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12" t="s">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2307,7 +2307,7 @@
       <c r="E8" s="2">
         <v>635</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -2320,15 +2320,15 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="12" t="s">
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
@@ -2341,28 +2341,28 @@
       <c r="E9" s="2">
         <v>594</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="16">
         <v>6</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="12" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
@@ -2375,22 +2375,22 @@
       <c r="E10" s="2">
         <v>574</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="F10" s="16"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
@@ -2403,16 +2403,16 @@
       <c r="E11" s="2">
         <v>739</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="G11" s="14"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -2455,24 +2455,24 @@
       <c r="E14" s="2">
         <v>487</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="18" t="s">
         <v>533</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-    </row>
-    <row r="15" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+    </row>
+    <row r="15" spans="2:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2485,22 +2485,22 @@
       <c r="E15" s="2">
         <v>845</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
@@ -2528,21 +2528,21 @@
       <c r="E17" s="2">
         <v>451</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-    </row>
-    <row r="18" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -2555,19 +2555,19 @@
       <c r="E18" s="2">
         <v>490</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-    </row>
-    <row r="19" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+    </row>
+    <row r="19" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -2580,19 +2580,19 @@
       <c r="E19" s="2">
         <v>339</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>22</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>16</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>3</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>28</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>16</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>22</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>12</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>11</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>4</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>22</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>22</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>11</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>22</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>4</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>12</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>16</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>4</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>16</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>16</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>11</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>11</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>3</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>22</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>28</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>3</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>28</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>16</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>12</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>22</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>12</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>3</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>3</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>22</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>4</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>22</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>22</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>22</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>28</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>12</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>28</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>28</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>4</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>28</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>22</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>12</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>11</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>22</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
         <v>12</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>28</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>28</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>11</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>12</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>11</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>12</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>16</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>22</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>12</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
         <v>16</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
         <v>28</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>28</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
         <v>16</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
         <v>12</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
         <v>12</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
         <v>4</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
         <v>4</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
         <v>11</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
         <v>4</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>11</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>11</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
         <v>11</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>12</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="2" t="s">
         <v>12</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
         <v>3</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
         <v>12</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
         <v>22</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
         <v>3</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
         <v>3</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="2" t="s">
         <v>28</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
         <v>11</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
         <v>3</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
         <v>3</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
         <v>22</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="2" t="s">
         <v>4</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="2" t="s">
         <v>28</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
         <v>4</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
         <v>12</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="2" t="s">
         <v>4</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
         <v>28</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="2" t="s">
         <v>3</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="2" t="s">
         <v>11</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="2" t="s">
         <v>22</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" s="2" t="s">
         <v>12</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="2" t="s">
         <v>22</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="2" t="s">
         <v>28</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="2" t="s">
         <v>11</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="2" t="s">
         <v>3</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="2" t="s">
         <v>3</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" s="2" t="s">
         <v>3</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="2" t="s">
         <v>4</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="2" t="s">
         <v>4</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="2" t="s">
         <v>4</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="2" t="s">
         <v>22</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="2" t="s">
         <v>22</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="2" t="s">
         <v>16</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="2" t="s">
         <v>3</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="2" t="s">
         <v>11</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="2" t="s">
         <v>12</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="2" t="s">
         <v>3</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="2" t="s">
         <v>4</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="2" t="s">
         <v>28</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="2" t="s">
         <v>28</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="2" t="s">
         <v>11</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" s="2" t="s">
         <v>4</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
         <v>16</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="2" t="s">
         <v>12</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="2" t="s">
         <v>28</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="2" t="s">
         <v>4</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="2" t="s">
         <v>12</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="2" t="s">
         <v>12</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="2" t="s">
         <v>16</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="2" t="s">
         <v>4</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="2" t="s">
         <v>11</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="2" t="s">
         <v>4</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="2" t="s">
         <v>22</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166" s="2" t="s">
         <v>28</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167" s="2" t="s">
         <v>28</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="2" t="s">
         <v>22</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" s="2" t="s">
         <v>28</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" s="2" t="s">
         <v>12</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="2" t="s">
         <v>12</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="2" t="s">
         <v>4</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="2" t="s">
         <v>11</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" s="2" t="s">
         <v>22</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" s="2" t="s">
         <v>11</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B176" s="2" t="s">
         <v>28</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B177" s="2" t="s">
         <v>16</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="2" t="s">
         <v>28</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="2" t="s">
         <v>4</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="2" t="s">
         <v>12</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" s="2" t="s">
         <v>28</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
         <v>11</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" s="2" t="s">
         <v>12</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" s="2" t="s">
         <v>4</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" s="2" t="s">
         <v>12</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" s="2" t="s">
         <v>12</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" s="2" t="s">
         <v>12</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" s="2" t="s">
         <v>12</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="2" t="s">
         <v>3</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" s="2" t="s">
         <v>22</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="2" t="s">
         <v>11</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" s="2" t="s">
         <v>11</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="2" t="s">
         <v>28</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="2" t="s">
         <v>4</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="2" t="s">
         <v>12</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="2" t="s">
         <v>3</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="2" t="s">
         <v>22</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B198" s="2" t="s">
         <v>12</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B199" s="2" t="s">
         <v>22</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B200" s="2" t="s">
         <v>3</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" s="2" t="s">
         <v>16</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" s="2" t="s">
         <v>22</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" s="2" t="s">
         <v>3</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" s="2" t="s">
         <v>12</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" s="2" t="s">
         <v>3</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B206" s="2" t="s">
         <v>3</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B207" s="2" t="s">
         <v>12</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B208" s="2" t="s">
         <v>4</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B209" s="2" t="s">
         <v>16</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B210" s="2" t="s">
         <v>3</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B211" s="2" t="s">
         <v>3</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B212" s="2" t="s">
         <v>22</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B213" s="2" t="s">
         <v>3</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B214" s="2" t="s">
         <v>16</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B215" s="2" t="s">
         <v>3</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B216" s="2" t="s">
         <v>28</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B217" s="2" t="s">
         <v>3</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B218" s="2" t="s">
         <v>3</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B219" s="2" t="s">
         <v>4</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B220" s="2" t="s">
         <v>16</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B221" s="2" t="s">
         <v>4</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B222" s="2" t="s">
         <v>4</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B223" s="2" t="s">
         <v>22</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B224" s="2" t="s">
         <v>16</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B225" s="2" t="s">
         <v>12</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B226" s="2" t="s">
         <v>16</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B227" s="2" t="s">
         <v>11</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B228" s="2" t="s">
         <v>3</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B229" s="2" t="s">
         <v>4</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B230" s="2" t="s">
         <v>22</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B231" s="2" t="s">
         <v>3</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B232" s="2" t="s">
         <v>16</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B233" s="2" t="s">
         <v>12</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B234" s="2" t="s">
         <v>12</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B235" s="2" t="s">
         <v>11</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B236" s="2" t="s">
         <v>28</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B237" s="2" t="s">
         <v>16</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B238" s="2" t="s">
         <v>12</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B239" s="2" t="s">
         <v>11</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B240" s="2" t="s">
         <v>4</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B241" s="2" t="s">
         <v>4</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B242" s="2" t="s">
         <v>12</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B243" s="2" t="s">
         <v>16</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B244" s="2" t="s">
         <v>11</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B245" s="2" t="s">
         <v>28</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B246" s="2" t="s">
         <v>11</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B247" s="2" t="s">
         <v>16</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B248" s="2" t="s">
         <v>4</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B249" s="2" t="s">
         <v>11</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B250" s="2" t="s">
         <v>4</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B251" s="2" t="s">
         <v>3</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B252" s="2" t="s">
         <v>16</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B253" s="2" t="s">
         <v>12</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B254" s="2" t="s">
         <v>11</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B255" s="2" t="s">
         <v>11</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B256" s="2" t="s">
         <v>3</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B257" s="2" t="s">
         <v>28</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B258" s="2" t="s">
         <v>16</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B259" s="2" t="s">
         <v>4</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B260" s="2" t="s">
         <v>12</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B261" s="2" t="s">
         <v>12</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B262" s="2" t="s">
         <v>28</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B263" s="2" t="s">
         <v>22</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B264" s="2" t="s">
         <v>16</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B265" s="2" t="s">
         <v>3</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B266" s="2" t="s">
         <v>22</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B267" s="2" t="s">
         <v>4</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B268" s="2" t="s">
         <v>4</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B269" s="2" t="s">
         <v>3</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B270" s="2" t="s">
         <v>4</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B271" s="2" t="s">
         <v>4</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B272" s="2" t="s">
         <v>28</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" s="2" t="s">
         <v>16</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B274" s="2" t="s">
         <v>22</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B275" s="2" t="s">
         <v>12</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" s="2" t="s">
         <v>22</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" s="2" t="s">
         <v>22</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" s="2" t="s">
         <v>4</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" s="2" t="s">
         <v>28</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" s="2" t="s">
         <v>4</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281" s="2" t="s">
         <v>12</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" s="2" t="s">
         <v>28</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283" s="2" t="s">
         <v>16</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" s="2" t="s">
         <v>16</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285" s="2" t="s">
         <v>12</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B286" s="2" t="s">
         <v>28</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B287" s="2" t="s">
         <v>28</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" s="2" t="s">
         <v>3</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B289" s="2" t="s">
         <v>4</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B290" s="2" t="s">
         <v>12</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B291" s="2" t="s">
         <v>16</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B292" s="2" t="s">
         <v>22</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B293" s="2" t="s">
         <v>16</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B294" s="2" t="s">
         <v>22</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B295" s="2" t="s">
         <v>28</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B296" s="2" t="s">
         <v>16</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297" s="2" t="s">
         <v>28</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B298" s="2" t="s">
         <v>11</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B299" s="2" t="s">
         <v>11</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B300" s="2" t="s">
         <v>22</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B301" s="2" t="s">
         <v>3</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B302" s="2" t="s">
         <v>28</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B303" s="2" t="s">
         <v>11</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B304" s="2" t="s">
         <v>28</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B305" s="2" t="s">
         <v>4</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B306" s="2" t="s">
         <v>4</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B307" s="2" t="s">
         <v>16</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B308" s="2" t="s">
         <v>28</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B309" s="2" t="s">
         <v>3</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B310" s="2" t="s">
         <v>11</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B311" s="2" t="s">
         <v>3</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B312" s="2" t="s">
         <v>12</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B313" s="2" t="s">
         <v>16</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B314" s="2" t="s">
         <v>28</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B315" s="2" t="s">
         <v>3</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B316" s="2" t="s">
         <v>3</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B317" s="2" t="s">
         <v>28</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B318" s="2" t="s">
         <v>22</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B319" s="2" t="s">
         <v>12</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B320" s="2" t="s">
         <v>28</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B321" s="2" t="s">
         <v>22</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B322" s="2" t="s">
         <v>3</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B323" s="2" t="s">
         <v>28</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B324" s="2" t="s">
         <v>16</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B325" s="2" t="s">
         <v>28</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B326" s="2" t="s">
         <v>11</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B327" s="2" t="s">
         <v>11</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B328" s="2" t="s">
         <v>3</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B329" s="2" t="s">
         <v>11</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B330" s="2" t="s">
         <v>12</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B331" s="2" t="s">
         <v>28</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B332" s="2" t="s">
         <v>12</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B333" s="2" t="s">
         <v>3</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B334" s="2" t="s">
         <v>11</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B335" s="2" t="s">
         <v>4</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B336" s="2" t="s">
         <v>22</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B337" s="2" t="s">
         <v>12</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B338" s="2" t="s">
         <v>4</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B339" s="2" t="s">
         <v>4</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B340" s="2" t="s">
         <v>16</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B341" s="2" t="s">
         <v>11</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B342" s="2" t="s">
         <v>4</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B343" s="2" t="s">
         <v>4</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B344" s="2" t="s">
         <v>12</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B345" s="2" t="s">
         <v>28</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B346" s="2" t="s">
         <v>22</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B347" s="2" t="s">
         <v>28</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B348" s="2" t="s">
         <v>22</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B349" s="2" t="s">
         <v>3</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B350" s="2" t="s">
         <v>22</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B351" s="2" t="s">
         <v>3</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B352" s="2" t="s">
         <v>3</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B353" s="2" t="s">
         <v>4</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B354" s="2" t="s">
         <v>16</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B355" s="2" t="s">
         <v>22</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B356" s="2" t="s">
         <v>16</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B357" s="2" t="s">
         <v>16</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B358" s="2" t="s">
         <v>28</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B359" s="2" t="s">
         <v>16</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B360" s="2" t="s">
         <v>16</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B361" s="2" t="s">
         <v>4</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B362" s="2" t="s">
         <v>4</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B363" s="2" t="s">
         <v>28</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B364" s="2" t="s">
         <v>3</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B365" s="2" t="s">
         <v>12</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B366" s="2" t="s">
         <v>12</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B367" s="2" t="s">
         <v>11</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B368" s="2" t="s">
         <v>3</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B369" s="2" t="s">
         <v>12</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B370" s="2" t="s">
         <v>16</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B371" s="2" t="s">
         <v>22</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B372" s="2" t="s">
         <v>22</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B373" s="2" t="s">
         <v>3</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B374" s="2" t="s">
         <v>16</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B375" s="2" t="s">
         <v>28</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B376" s="2" t="s">
         <v>11</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B377" s="2" t="s">
         <v>16</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B378" s="2" t="s">
         <v>11</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B379" s="2" t="s">
         <v>4</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B380" s="2" t="s">
         <v>28</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B381" s="2" t="s">
         <v>16</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B382" s="2" t="s">
         <v>3</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B383" s="2" t="s">
         <v>11</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="384" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B384" s="2" t="s">
         <v>22</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B385" s="2" t="s">
         <v>16</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B386" s="2" t="s">
         <v>11</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B387" s="2" t="s">
         <v>16</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B388" s="2" t="s">
         <v>3</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B389" s="2" t="s">
         <v>4</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B390" s="2" t="s">
         <v>3</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B391" s="2" t="s">
         <v>4</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B392" s="2" t="s">
         <v>16</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B393" s="2" t="s">
         <v>22</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B394" s="2" t="s">
         <v>22</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B395" s="2" t="s">
         <v>12</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B396" s="2" t="s">
         <v>11</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B397" s="2" t="s">
         <v>16</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B398" s="2" t="s">
         <v>16</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B399" s="2" t="s">
         <v>28</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B400" s="2" t="s">
         <v>3</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B401" s="2" t="s">
         <v>3</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B402" s="2" t="s">
         <v>11</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B403" s="2" t="s">
         <v>3</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B404" s="2" t="s">
         <v>11</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B405" s="2" t="s">
         <v>3</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B406" s="2" t="s">
         <v>28</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B407" s="2" t="s">
         <v>22</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B408" s="2" t="s">
         <v>4</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B409" s="2" t="s">
         <v>28</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B410" s="2" t="s">
         <v>22</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B411" s="2" t="s">
         <v>16</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B412" s="2" t="s">
         <v>11</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B413" s="2" t="s">
         <v>12</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B414" s="2" t="s">
         <v>4</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B415" s="2" t="s">
         <v>28</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="416" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B416" s="2" t="s">
         <v>3</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="417" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B417" s="2" t="s">
         <v>11</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="418" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B418" s="2" t="s">
         <v>16</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="419" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B419" s="2" t="s">
         <v>22</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="420" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B420" s="2" t="s">
         <v>12</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="421" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B421" s="2" t="s">
         <v>22</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="422" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B422" s="2" t="s">
         <v>16</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="423" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B423" s="2" t="s">
         <v>16</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="424" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B424" s="2" t="s">
         <v>16</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="425" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B425" s="2" t="s">
         <v>4</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="426" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B426" s="2" t="s">
         <v>4</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="427" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B427" s="2" t="s">
         <v>12</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="428" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B428" s="2" t="s">
         <v>3</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="429" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B429" s="2" t="s">
         <v>4</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="430" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B430" s="2" t="s">
         <v>28</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="431" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B431" s="2" t="s">
         <v>22</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="432" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B432" s="2" t="s">
         <v>4</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="433" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B433" s="2" t="s">
         <v>12</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="434" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B434" s="2" t="s">
         <v>3</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="435" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B435" s="2" t="s">
         <v>3</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="436" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B436" s="2" t="s">
         <v>16</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="437" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B437" s="2" t="s">
         <v>22</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="438" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B438" s="2" t="s">
         <v>22</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="439" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B439" s="2" t="s">
         <v>16</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="440" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B440" s="2" t="s">
         <v>16</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="441" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B441" s="2" t="s">
         <v>16</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="442" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B442" s="2" t="s">
         <v>28</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="443" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B443" s="2" t="s">
         <v>22</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="444" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B444" s="2" t="s">
         <v>22</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="445" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B445" s="2" t="s">
         <v>4</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="446" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B446" s="2" t="s">
         <v>3</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="447" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B447" s="2" t="s">
         <v>16</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="448" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B448" s="2" t="s">
         <v>4</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="449" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B449" s="2" t="s">
         <v>22</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="450" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B450" s="2" t="s">
         <v>3</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="451" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B451" s="2" t="s">
         <v>28</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="452" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B452" s="2" t="s">
         <v>11</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="453" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B453" s="2" t="s">
         <v>28</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="454" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B454" s="2" t="s">
         <v>12</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="455" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B455" s="2" t="s">
         <v>22</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="456" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B456" s="2" t="s">
         <v>28</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="457" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B457" s="2" t="s">
         <v>4</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="458" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B458" s="2" t="s">
         <v>28</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="459" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B459" s="2" t="s">
         <v>3</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="460" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B460" s="2" t="s">
         <v>28</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="461" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B461" s="2" t="s">
         <v>3</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="462" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B462" s="2" t="s">
         <v>4</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="463" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B463" s="2" t="s">
         <v>12</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="464" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B464" s="2" t="s">
         <v>22</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="465" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B465" s="2" t="s">
         <v>12</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="466" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B466" s="2" t="s">
         <v>22</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="467" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B467" s="2" t="s">
         <v>28</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="468" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B468" s="2" t="s">
         <v>3</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="469" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B469" s="2" t="s">
         <v>12</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="470" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B470" s="2" t="s">
         <v>28</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="471" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B471" s="2" t="s">
         <v>22</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="472" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B472" s="2" t="s">
         <v>3</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="473" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B473" s="2" t="s">
         <v>16</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="474" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B474" s="2" t="s">
         <v>16</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="475" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B475" s="2" t="s">
         <v>12</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="476" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B476" s="2" t="s">
         <v>12</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="477" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B477" s="2" t="s">
         <v>22</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="478" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B478" s="2" t="s">
         <v>4</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="479" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B479" s="2" t="s">
         <v>11</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="480" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B480" s="2" t="s">
         <v>11</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="481" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B481" s="2" t="s">
         <v>11</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="482" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B482" s="2" t="s">
         <v>3</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="483" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B483" s="2" t="s">
         <v>16</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="484" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B484" s="2" t="s">
         <v>3</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="485" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B485" s="2" t="s">
         <v>4</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="486" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B486" s="2" t="s">
         <v>11</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="487" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B487" s="2" t="s">
         <v>16</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="488" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B488" s="2" t="s">
         <v>28</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="489" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B489" s="2" t="s">
         <v>28</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B490" s="2" t="s">
         <v>4</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="491" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B491" s="2" t="s">
         <v>11</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="492" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B492" s="2" t="s">
         <v>3</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="493" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B493" s="2" t="s">
         <v>3</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="494" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B494" s="2" t="s">
         <v>16</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="495" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B495" s="2" t="s">
         <v>4</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="496" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B496" s="2" t="s">
         <v>3</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="497" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B497" s="2" t="s">
         <v>22</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="498" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B498" s="2" t="s">
         <v>12</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="499" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B499" s="2" t="s">
         <v>22</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="500" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B500" s="2" t="s">
         <v>11</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="501" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B501" s="2" t="s">
         <v>4</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="502" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B502" s="2" t="s">
         <v>3</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="503" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B503" s="2" t="s">
         <v>16</v>
       </c>
@@ -9423,11 +9423,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="I2:N2"/>
     <mergeCell ref="G14:T15"/>
     <mergeCell ref="H17:R19"/>
     <mergeCell ref="G9:G10"/>
@@ -9435,6 +9430,11 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="I2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="I8:N8">
     <cfRule type="iconSet" priority="6">
